--- a/PBR Issue AugSept2019/2020-1-10 LDB permits not migrated (version 9-KS edit).xlsx
+++ b/PBR Issue AugSept2019/2020-1-10 LDB permits not migrated (version 9-KS edit).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KStevens\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\solid-waste-migration\PBR Issue AugSept2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE3874A-D667-4F8F-B9F8-AB1BB099470F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5833ADB3-BF80-46A8-83D8-FA6EF3F7A28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="695" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-105" windowWidth="19440" windowHeight="15000" tabRatio="695" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="2" r:id="rId1"/>
@@ -4286,20 +4286,20 @@
     <t>Create two new Facilities? Yes (ks)</t>
   </si>
   <si>
+    <t>Split?  Not sure -  I need to pull the paper file.  I think this is just the scalehouse address and ph 1 and ph 2 are the same facility w/ different permit #'s</t>
+  </si>
+  <si>
+    <t>Ask program - split - separate facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active in PCC other references were to proposed expansion area's never built / sold (Savannah Regional Indust LF) </t>
+  </si>
+  <si>
+    <t>Create own Facility? - I need to double check… new facilty being built atop old one (I think) (ks)</t>
+  </si>
+  <si>
     <t>Get right address from Program-044-049 should be East DeKalb Landfill - mailing address is 550 Six Flags Parkway
 Mableton, GA 30126</t>
-  </si>
-  <si>
-    <t>Split?  Not sure -  I need to pull the paper file.  I think this is just the scalehouse address and ph 1 and ph 2 are the same facility w/ different permit #'s</t>
-  </si>
-  <si>
-    <t>Ask program - split - separate facilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active in PCC other references were to proposed expansion area's never built / sold (Savannah Regional Indust LF) </t>
-  </si>
-  <si>
-    <t>Create own Facility? - I need to double check… new facilty being built atop old one (I think) (ks)</t>
   </si>
 </sst>
 </file>
@@ -4393,7 +4393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4459,6 +4459,12 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -4506,7 +4512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4692,6 +4698,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5354,40 +5376,40 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5110" topLeftCell="S1" activePane="topRight"/>
+      <pane xSplit="5115" topLeftCell="S1" activePane="topRight"/>
       <selection activeCell="A37" sqref="A37:XFD37"/>
       <selection pane="topRight" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" customWidth="1"/>
-    <col min="8" max="8" width="64.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="52" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
     <col min="19" max="19" width="121" customWidth="1"/>
-    <col min="20" max="20" width="94.26953125" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" customWidth="1"/>
-    <col min="24" max="24" width="15.81640625" customWidth="1"/>
-    <col min="25" max="25" width="53.1796875" customWidth="1"/>
-    <col min="26" max="26" width="35.81640625" customWidth="1"/>
+    <col min="20" max="20" width="94.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="25" max="25" width="53.140625" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>359</v>
       </c>
@@ -5449,7 +5471,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>345578</v>
       </c>
@@ -5511,7 +5533,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>345584</v>
       </c>
@@ -5579,7 +5601,7 @@
       <c r="Y3" s="67"/>
       <c r="Z3" s="67"/>
     </row>
-    <row r="4" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1983</v>
       </c>
@@ -5653,7 +5675,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>345607</v>
       </c>
@@ -5727,7 +5749,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>345631</v>
       </c>
@@ -5801,7 +5823,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>150028</v>
       </c>
@@ -5875,7 +5897,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>345658</v>
       </c>
@@ -5949,7 +5971,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8624</v>
       </c>
@@ -6023,7 +6045,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>429</v>
       </c>
@@ -6097,7 +6119,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>345944</v>
       </c>
@@ -6171,7 +6193,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>345951</v>
       </c>
@@ -6245,7 +6267,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>345953</v>
       </c>
@@ -6319,7 +6341,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>345955</v>
       </c>
@@ -6393,7 +6415,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>345955</v>
       </c>
@@ -6467,7 +6489,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>345960</v>
       </c>
@@ -6541,7 +6563,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>345965</v>
       </c>
@@ -6615,7 +6637,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>345970</v>
       </c>
@@ -6689,7 +6711,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>345982</v>
       </c>
@@ -6763,7 +6785,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>8167</v>
       </c>
@@ -6837,7 +6859,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13106</v>
       </c>
@@ -6911,7 +6933,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>345789</v>
       </c>
@@ -6973,7 +6995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>345793</v>
       </c>
@@ -7035,7 +7057,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>345808</v>
       </c>
@@ -7097,7 +7119,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>345810</v>
       </c>
@@ -7159,7 +7181,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>345672</v>
       </c>
@@ -7221,7 +7243,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>345677</v>
       </c>
@@ -7283,7 +7305,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>345698</v>
       </c>
@@ -7345,7 +7367,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>429</v>
       </c>
@@ -7407,7 +7429,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>429</v>
       </c>
@@ -7469,7 +7491,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>345722</v>
       </c>
@@ -7531,7 +7553,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>429</v>
       </c>
@@ -7593,7 +7615,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>429</v>
       </c>
@@ -7655,7 +7677,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>429</v>
       </c>
@@ -7717,7 +7739,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>429</v>
       </c>
@@ -7779,7 +7801,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>346071</v>
       </c>
@@ -7841,7 +7863,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>429</v>
       </c>
@@ -7903,7 +7925,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>429</v>
       </c>
@@ -7965,7 +7987,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>429</v>
       </c>
@@ -8027,7 +8049,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>146928</v>
       </c>
@@ -8089,7 +8111,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>429</v>
       </c>
@@ -8151,7 +8173,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>429</v>
       </c>
@@ -8213,7 +8235,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>429</v>
       </c>
@@ -8275,7 +8297,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>429</v>
       </c>
@@ -8337,7 +8359,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>429</v>
       </c>
@@ -8397,7 +8419,7 @@
       </c>
       <c r="T45" s="52"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>429</v>
       </c>
@@ -8457,7 +8479,7 @@
       </c>
       <c r="T46" s="52"/>
     </row>
-    <row r="47" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>6542</v>
       </c>
@@ -8478,7 +8500,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>6542</v>
       </c>
@@ -8499,7 +8521,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>350995</v>
       </c>
@@ -8529,7 +8551,7 @@
       </c>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>345959</v>
       </c>
@@ -8563,7 +8585,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>345958</v>
       </c>
@@ -8584,7 +8606,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>10779</v>
       </c>
@@ -8605,7 +8627,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>346007</v>
       </c>
@@ -8639,7 +8661,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>11910</v>
       </c>
@@ -8660,7 +8682,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>350997</v>
       </c>
@@ -8694,7 +8716,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>345994</v>
       </c>
@@ -8728,7 +8750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>350990</v>
       </c>
@@ -8762,7 +8784,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" s="13" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>351000</v>
       </c>
@@ -8788,7 +8810,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>155874</v>
       </c>
@@ -8814,7 +8836,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>350987</v>
       </c>
@@ -8842,7 +8864,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>350989</v>
       </c>
@@ -8868,7 +8890,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>350991</v>
       </c>
@@ -8889,7 +8911,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>149872</v>
       </c>
@@ -8910,7 +8932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="26">
         <v>345878</v>
       </c>
@@ -8930,7 +8952,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2">
         <v>8176</v>
@@ -8940,7 +8962,7 @@
       </c>
       <c r="T65" s="35"/>
     </row>
-    <row r="66" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>9312</v>
       </c>
@@ -8982,19 +9004,19 @@
       <selection pane="bottomLeft" activeCell="I763" sqref="I763"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="22.7265625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="61.1796875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="1" width="19.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>1286</v>
       </c>
@@ -9017,7 +9039,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>571</v>
       </c>
@@ -9040,7 +9062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>571</v>
       </c>
@@ -9063,7 +9085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>219</v>
       </c>
@@ -9086,7 +9108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>219</v>
       </c>
@@ -9109,7 +9131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>219</v>
       </c>
@@ -9132,7 +9154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>571</v>
       </c>
@@ -9155,7 +9177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>219</v>
       </c>
@@ -9178,7 +9200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>219</v>
       </c>
@@ -9201,7 +9223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>219</v>
       </c>
@@ -9224,7 +9246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>219</v>
       </c>
@@ -9247,7 +9269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>571</v>
       </c>
@@ -9270,7 +9292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>571</v>
       </c>
@@ -9293,7 +9315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>571</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>219</v>
       </c>
@@ -9339,7 +9361,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>219</v>
       </c>
@@ -9362,7 +9384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>571</v>
       </c>
@@ -9385,7 +9407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>219</v>
       </c>
@@ -9408,7 +9430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>219</v>
       </c>
@@ -9431,7 +9453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>219</v>
       </c>
@@ -9454,7 +9476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>219</v>
       </c>
@@ -9477,7 +9499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>219</v>
       </c>
@@ -9500,7 +9522,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>219</v>
       </c>
@@ -9523,7 +9545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>219</v>
       </c>
@@ -9546,7 +9568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>571</v>
       </c>
@@ -9569,7 +9591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>571</v>
       </c>
@@ -9592,7 +9614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>571</v>
       </c>
@@ -9615,7 +9637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>219</v>
       </c>
@@ -9638,7 +9660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>571</v>
       </c>
@@ -9661,7 +9683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>219</v>
       </c>
@@ -9684,7 +9706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>219</v>
       </c>
@@ -9707,7 +9729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>571</v>
       </c>
@@ -9730,7 +9752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>219</v>
       </c>
@@ -9753,7 +9775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>219</v>
       </c>
@@ -9776,7 +9798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>219</v>
       </c>
@@ -9799,7 +9821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>571</v>
       </c>
@@ -9822,7 +9844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>219</v>
       </c>
@@ -9845,7 +9867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>219</v>
       </c>
@@ -9868,7 +9890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>219</v>
       </c>
@@ -9891,7 +9913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>219</v>
       </c>
@@ -9914,7 +9936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>219</v>
       </c>
@@ -9937,7 +9959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>571</v>
       </c>
@@ -9960,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>219</v>
       </c>
@@ -9983,7 +10005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>219</v>
       </c>
@@ -10006,7 +10028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>571</v>
       </c>
@@ -10029,7 +10051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>219</v>
       </c>
@@ -10052,7 +10074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>219</v>
       </c>
@@ -10075,7 +10097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>219</v>
       </c>
@@ -10098,7 +10120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>219</v>
       </c>
@@ -10121,7 +10143,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>571</v>
       </c>
@@ -10144,7 +10166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>219</v>
       </c>
@@ -10167,7 +10189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>571</v>
       </c>
@@ -10190,7 +10212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>571</v>
       </c>
@@ -10213,7 +10235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>219</v>
       </c>
@@ -10236,7 +10258,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>219</v>
       </c>
@@ -10259,7 +10281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>219</v>
       </c>
@@ -10282,7 +10304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>219</v>
       </c>
@@ -10305,7 +10327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>219</v>
       </c>
@@ -10328,7 +10350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>219</v>
       </c>
@@ -10351,7 +10373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>571</v>
       </c>
@@ -10374,7 +10396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>219</v>
       </c>
@@ -10397,7 +10419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>219</v>
       </c>
@@ -10420,7 +10442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>219</v>
       </c>
@@ -10443,7 +10465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>219</v>
       </c>
@@ -10466,7 +10488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>571</v>
       </c>
@@ -10489,7 +10511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>219</v>
       </c>
@@ -10512,7 +10534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>219</v>
       </c>
@@ -10535,7 +10557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>571</v>
       </c>
@@ -10558,7 +10580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>219</v>
       </c>
@@ -10581,7 +10603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>571</v>
       </c>
@@ -10604,7 +10626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>219</v>
       </c>
@@ -10627,7 +10649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>571</v>
       </c>
@@ -10650,7 +10672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>219</v>
       </c>
@@ -10673,7 +10695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>571</v>
       </c>
@@ -10696,7 +10718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>219</v>
       </c>
@@ -10719,7 +10741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>219</v>
       </c>
@@ -10742,7 +10764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>219</v>
       </c>
@@ -10765,7 +10787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>219</v>
       </c>
@@ -10788,7 +10810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>219</v>
       </c>
@@ -10811,7 +10833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>219</v>
       </c>
@@ -10834,7 +10856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>219</v>
       </c>
@@ -10857,7 +10879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>219</v>
       </c>
@@ -10880,7 +10902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>219</v>
       </c>
@@ -10903,7 +10925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>219</v>
       </c>
@@ -10926,7 +10948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>571</v>
       </c>
@@ -10949,7 +10971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>219</v>
       </c>
@@ -10972,7 +10994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>219</v>
       </c>
@@ -10995,7 +11017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>571</v>
       </c>
@@ -11018,7 +11040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>219</v>
       </c>
@@ -11041,7 +11063,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>571</v>
       </c>
@@ -11064,7 +11086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>571</v>
       </c>
@@ -11087,7 +11109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>571</v>
       </c>
@@ -11110,7 +11132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>571</v>
       </c>
@@ -11133,7 +11155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>219</v>
       </c>
@@ -11156,7 +11178,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>571</v>
       </c>
@@ -11179,7 +11201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>219</v>
       </c>
@@ -11202,7 +11224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>571</v>
       </c>
@@ -11225,7 +11247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>219</v>
       </c>
@@ -11248,7 +11270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>219</v>
       </c>
@@ -11271,7 +11293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>219</v>
       </c>
@@ -11294,7 +11316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>571</v>
       </c>
@@ -11317,7 +11339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>219</v>
       </c>
@@ -11340,7 +11362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>219</v>
       </c>
@@ -11363,7 +11385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>571</v>
       </c>
@@ -11386,7 +11408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>571</v>
       </c>
@@ -11409,7 +11431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>219</v>
       </c>
@@ -11432,7 +11454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>219</v>
       </c>
@@ -11455,7 +11477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>219</v>
       </c>
@@ -11478,7 +11500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>219</v>
       </c>
@@ -11501,7 +11523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>219</v>
       </c>
@@ -11524,7 +11546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>219</v>
       </c>
@@ -11547,7 +11569,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>219</v>
       </c>
@@ -11570,7 +11592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>219</v>
       </c>
@@ -11593,7 +11615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>571</v>
       </c>
@@ -11616,7 +11638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>219</v>
       </c>
@@ -11639,7 +11661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>219</v>
       </c>
@@ -11662,7 +11684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>219</v>
       </c>
@@ -11685,7 +11707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>219</v>
       </c>
@@ -11708,7 +11730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>219</v>
       </c>
@@ -11731,7 +11753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>219</v>
       </c>
@@ -11754,7 +11776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>571</v>
       </c>
@@ -11777,7 +11799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>219</v>
       </c>
@@ -11800,7 +11822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>219</v>
       </c>
@@ -11823,7 +11845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>219</v>
       </c>
@@ -11869,7 +11891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>219</v>
       </c>
@@ -11892,7 +11914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>571</v>
       </c>
@@ -11915,7 +11937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>571</v>
       </c>
@@ -11938,7 +11960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>219</v>
       </c>
@@ -11961,7 +11983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>571</v>
       </c>
@@ -11984,7 +12006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>219</v>
       </c>
@@ -12007,7 +12029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>219</v>
       </c>
@@ -12030,7 +12052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>219</v>
       </c>
@@ -12053,7 +12075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>571</v>
       </c>
@@ -12076,7 +12098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>219</v>
       </c>
@@ -12099,7 +12121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>219</v>
       </c>
@@ -12122,7 +12144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>219</v>
       </c>
@@ -12145,7 +12167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>219</v>
       </c>
@@ -12168,7 +12190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>219</v>
       </c>
@@ -12191,7 +12213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>219</v>
       </c>
@@ -12214,7 +12236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>219</v>
       </c>
@@ -12237,7 +12259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
         <v>219</v>
       </c>
@@ -12260,7 +12282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>219</v>
       </c>
@@ -12283,7 +12305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>219</v>
       </c>
@@ -12306,7 +12328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>219</v>
       </c>
@@ -12329,7 +12351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>219</v>
       </c>
@@ -12352,7 +12374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>219</v>
       </c>
@@ -12375,7 +12397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>571</v>
       </c>
@@ -12398,7 +12420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>571</v>
       </c>
@@ -12421,7 +12443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>219</v>
       </c>
@@ -12444,7 +12466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>219</v>
       </c>
@@ -12467,7 +12489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>219</v>
       </c>
@@ -12490,7 +12512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>219</v>
       </c>
@@ -12513,7 +12535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>219</v>
       </c>
@@ -12536,7 +12558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>219</v>
       </c>
@@ -12559,7 +12581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>219</v>
       </c>
@@ -12582,7 +12604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>571</v>
       </c>
@@ -12605,7 +12627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>571</v>
       </c>
@@ -12628,7 +12650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>571</v>
       </c>
@@ -12651,7 +12673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>219</v>
       </c>
@@ -12674,7 +12696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>571</v>
       </c>
@@ -12697,7 +12719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>219</v>
       </c>
@@ -12720,7 +12742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>219</v>
       </c>
@@ -12743,7 +12765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>571</v>
       </c>
@@ -12766,7 +12788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>219</v>
       </c>
@@ -12789,7 +12811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>219</v>
       </c>
@@ -12812,7 +12834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>571</v>
       </c>
@@ -12835,7 +12857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>219</v>
       </c>
@@ -12858,7 +12880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>219</v>
       </c>
@@ -12881,7 +12903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>571</v>
       </c>
@@ -12904,7 +12926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>219</v>
       </c>
@@ -12927,7 +12949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>219</v>
       </c>
@@ -12950,7 +12972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
         <v>571</v>
       </c>
@@ -12973,7 +12995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
         <v>219</v>
       </c>
@@ -12996,7 +13018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>219</v>
       </c>
@@ -13019,7 +13041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>571</v>
       </c>
@@ -13042,7 +13064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>219</v>
       </c>
@@ -13065,7 +13087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>219</v>
       </c>
@@ -13088,7 +13110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>219</v>
       </c>
@@ -13111,7 +13133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>219</v>
       </c>
@@ -13134,7 +13156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>571</v>
       </c>
@@ -13157,7 +13179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>571</v>
       </c>
@@ -13180,7 +13202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>571</v>
       </c>
@@ -13203,7 +13225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>219</v>
       </c>
@@ -13226,7 +13248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>571</v>
       </c>
@@ -13249,7 +13271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>219</v>
       </c>
@@ -13272,7 +13294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>219</v>
       </c>
@@ -13295,7 +13317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>571</v>
       </c>
@@ -13318,7 +13340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>219</v>
       </c>
@@ -13341,7 +13363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>219</v>
       </c>
@@ -13364,7 +13386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>219</v>
       </c>
@@ -13387,7 +13409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>571</v>
       </c>
@@ -13410,7 +13432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>571</v>
       </c>
@@ -13433,7 +13455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>219</v>
       </c>
@@ -13456,7 +13478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>219</v>
       </c>
@@ -13479,7 +13501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
         <v>219</v>
       </c>
@@ -13502,7 +13524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>219</v>
       </c>
@@ -13525,7 +13547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>219</v>
       </c>
@@ -13548,7 +13570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>219</v>
       </c>
@@ -13571,7 +13593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>219</v>
       </c>
@@ -13594,7 +13616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>219</v>
       </c>
@@ -13617,7 +13639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>219</v>
       </c>
@@ -13640,7 +13662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>571</v>
       </c>
@@ -13663,7 +13685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>219</v>
       </c>
@@ -13686,7 +13708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>219</v>
       </c>
@@ -13709,7 +13731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>219</v>
       </c>
@@ -13732,7 +13754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>219</v>
       </c>
@@ -13755,7 +13777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
         <v>219</v>
       </c>
@@ -13778,7 +13800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>219</v>
       </c>
@@ -13801,7 +13823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
         <v>571</v>
       </c>
@@ -13824,7 +13846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>571</v>
       </c>
@@ -13847,7 +13869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>571</v>
       </c>
@@ -13870,7 +13892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>219</v>
       </c>
@@ -13893,7 +13915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>219</v>
       </c>
@@ -13916,7 +13938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
         <v>219</v>
       </c>
@@ -13939,7 +13961,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
         <v>219</v>
       </c>
@@ -13962,7 +13984,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
         <v>571</v>
       </c>
@@ -13985,7 +14007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>219</v>
       </c>
@@ -14008,7 +14030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>219</v>
       </c>
@@ -14031,7 +14053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
         <v>219</v>
       </c>
@@ -14054,7 +14076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>219</v>
       </c>
@@ -14077,7 +14099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>219</v>
       </c>
@@ -14100,7 +14122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>571</v>
       </c>
@@ -14123,7 +14145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>571</v>
       </c>
@@ -14146,7 +14168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>571</v>
       </c>
@@ -14169,7 +14191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>219</v>
       </c>
@@ -14192,7 +14214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>571</v>
       </c>
@@ -14215,7 +14237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>219</v>
       </c>
@@ -14238,7 +14260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>219</v>
       </c>
@@ -14261,7 +14283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>219</v>
       </c>
@@ -14284,7 +14306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
         <v>219</v>
       </c>
@@ -14307,7 +14329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>219</v>
       </c>
@@ -14330,7 +14352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>219</v>
       </c>
@@ -14353,7 +14375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>571</v>
       </c>
@@ -14376,7 +14398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
         <v>219</v>
       </c>
@@ -14399,7 +14421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>219</v>
       </c>
@@ -14422,7 +14444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>219</v>
       </c>
@@ -14445,7 +14467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>219</v>
       </c>
@@ -14468,7 +14490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>219</v>
       </c>
@@ -14491,7 +14513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>219</v>
       </c>
@@ -14514,7 +14536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>219</v>
       </c>
@@ -14537,7 +14559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>571</v>
       </c>
@@ -14560,7 +14582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>571</v>
       </c>
@@ -14583,7 +14605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
         <v>219</v>
       </c>
@@ -14606,7 +14628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>219</v>
       </c>
@@ -14629,7 +14651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>219</v>
       </c>
@@ -14652,7 +14674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
         <v>571</v>
       </c>
@@ -14675,7 +14697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>219</v>
       </c>
@@ -14698,7 +14720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>219</v>
       </c>
@@ -14721,7 +14743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>219</v>
       </c>
@@ -14744,7 +14766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
         <v>571</v>
       </c>
@@ -14767,7 +14789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>571</v>
       </c>
@@ -14790,7 +14812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>219</v>
       </c>
@@ -14813,7 +14835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>219</v>
       </c>
@@ -14836,7 +14858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>219</v>
       </c>
@@ -14859,7 +14881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>219</v>
       </c>
@@ -14882,7 +14904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>219</v>
       </c>
@@ -14905,7 +14927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>219</v>
       </c>
@@ -14928,7 +14950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>219</v>
       </c>
@@ -14951,7 +14973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="16" t="s">
         <v>571</v>
       </c>
@@ -14974,7 +14996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>219</v>
       </c>
@@ -14997,7 +15019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
         <v>571</v>
       </c>
@@ -15020,7 +15042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>571</v>
       </c>
@@ -15043,7 +15065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="16" t="s">
         <v>219</v>
       </c>
@@ -15066,7 +15088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
         <v>219</v>
       </c>
@@ -15089,7 +15111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="16" t="s">
         <v>219</v>
       </c>
@@ -15112,7 +15134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
         <v>219</v>
       </c>
@@ -15135,7 +15157,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="16" t="s">
         <v>219</v>
       </c>
@@ -15158,7 +15180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
         <v>219</v>
       </c>
@@ -15181,7 +15203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="16" t="s">
         <v>219</v>
       </c>
@@ -15204,7 +15226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
         <v>219</v>
       </c>
@@ -15227,7 +15249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
         <v>571</v>
       </c>
@@ -15250,7 +15272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
         <v>219</v>
       </c>
@@ -15273,7 +15295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="16" t="s">
         <v>219</v>
       </c>
@@ -15296,7 +15318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
         <v>571</v>
       </c>
@@ -15319,7 +15341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="16" t="s">
         <v>219</v>
       </c>
@@ -15342,7 +15364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
         <v>571</v>
       </c>
@@ -15365,7 +15387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
         <v>219</v>
       </c>
@@ -15388,7 +15410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
         <v>219</v>
       </c>
@@ -15411,7 +15433,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="16" t="s">
         <v>219</v>
       </c>
@@ -15434,7 +15456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
         <v>219</v>
       </c>
@@ -15457,7 +15479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="16" t="s">
         <v>219</v>
       </c>
@@ -15480,7 +15502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
         <v>219</v>
       </c>
@@ -15503,7 +15525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="16" t="s">
         <v>219</v>
       </c>
@@ -15526,7 +15548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
         <v>219</v>
       </c>
@@ -15549,7 +15571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="16" t="s">
         <v>571</v>
       </c>
@@ -15572,7 +15594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
         <v>219</v>
       </c>
@@ -15595,7 +15617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="16" t="s">
         <v>219</v>
       </c>
@@ -15618,7 +15640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
         <v>571</v>
       </c>
@@ -15641,7 +15663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="16" t="s">
         <v>219</v>
       </c>
@@ -15664,7 +15686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
         <v>219</v>
       </c>
@@ -15687,7 +15709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="16" t="s">
         <v>571</v>
       </c>
@@ -15710,7 +15732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
         <v>571</v>
       </c>
@@ -15733,7 +15755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="18" t="s">
         <v>571</v>
       </c>
@@ -15756,7 +15778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
         <v>219</v>
       </c>
@@ -15779,7 +15801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="16" t="s">
         <v>219</v>
       </c>
@@ -15802,7 +15824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
         <v>219</v>
       </c>
@@ -15825,7 +15847,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
         <v>571</v>
       </c>
@@ -15848,7 +15870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
         <v>219</v>
       </c>
@@ -15871,7 +15893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="16" t="s">
         <v>571</v>
       </c>
@@ -15894,7 +15916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="s">
         <v>571</v>
       </c>
@@ -15917,7 +15939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="16" t="s">
         <v>571</v>
       </c>
@@ -15940,7 +15962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="18" t="s">
         <v>571</v>
       </c>
@@ -15963,7 +15985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="16" t="s">
         <v>219</v>
       </c>
@@ -15986,7 +16008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="s">
         <v>219</v>
       </c>
@@ -16009,7 +16031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="16" t="s">
         <v>219</v>
       </c>
@@ -16032,7 +16054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
         <v>219</v>
       </c>
@@ -16055,7 +16077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="16" t="s">
         <v>219</v>
       </c>
@@ -16078,7 +16100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="s">
         <v>219</v>
       </c>
@@ -16101,7 +16123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="16" t="s">
         <v>219</v>
       </c>
@@ -16124,7 +16146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
         <v>219</v>
       </c>
@@ -16147,7 +16169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="16" t="s">
         <v>571</v>
       </c>
@@ -16170,7 +16192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
         <v>219</v>
       </c>
@@ -16193,7 +16215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="16" t="s">
         <v>219</v>
       </c>
@@ -16216,7 +16238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
         <v>571</v>
       </c>
@@ -16239,7 +16261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="16" t="s">
         <v>219</v>
       </c>
@@ -16262,7 +16284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="s">
         <v>571</v>
       </c>
@@ -16285,7 +16307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="17" t="s">
         <v>219</v>
       </c>
@@ -16308,7 +16330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
         <v>219</v>
       </c>
@@ -16331,7 +16353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="16" t="s">
         <v>219</v>
       </c>
@@ -16354,7 +16376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="s">
         <v>571</v>
       </c>
@@ -16377,7 +16399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="16" t="s">
         <v>219</v>
       </c>
@@ -16400,7 +16422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="s">
         <v>219</v>
       </c>
@@ -16423,7 +16445,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="16" t="s">
         <v>219</v>
       </c>
@@ -16446,7 +16468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
         <v>219</v>
       </c>
@@ -16469,7 +16491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="16" t="s">
         <v>571</v>
       </c>
@@ -16492,7 +16514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="s">
         <v>219</v>
       </c>
@@ -16515,7 +16537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="16" t="s">
         <v>219</v>
       </c>
@@ -16538,7 +16560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
         <v>219</v>
       </c>
@@ -16561,7 +16583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="16" t="s">
         <v>219</v>
       </c>
@@ -16584,7 +16606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
         <v>219</v>
       </c>
@@ -16607,7 +16629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
         <v>219</v>
       </c>
@@ -16630,7 +16652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
         <v>219</v>
       </c>
@@ -16653,7 +16675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="16" t="s">
         <v>219</v>
       </c>
@@ -16676,7 +16698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="18" t="s">
         <v>571</v>
       </c>
@@ -16699,7 +16721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="17" t="s">
         <v>219</v>
       </c>
@@ -16722,7 +16744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="s">
         <v>571</v>
       </c>
@@ -16745,7 +16767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="16" t="s">
         <v>219</v>
       </c>
@@ -16768,7 +16790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
         <v>571</v>
       </c>
@@ -16791,7 +16813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="17" t="s">
         <v>219</v>
       </c>
@@ -16814,7 +16836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="s">
         <v>219</v>
       </c>
@@ -16837,7 +16859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="16" t="s">
         <v>219</v>
       </c>
@@ -16860,7 +16882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="s">
         <v>219</v>
       </c>
@@ -16883,7 +16905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="16" t="s">
         <v>219</v>
       </c>
@@ -16906,7 +16928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="s">
         <v>571</v>
       </c>
@@ -16929,7 +16951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="16" t="s">
         <v>571</v>
       </c>
@@ -16952,7 +16974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="s">
         <v>571</v>
       </c>
@@ -16975,7 +16997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="16" t="s">
         <v>571</v>
       </c>
@@ -16998,7 +17020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
         <v>571</v>
       </c>
@@ -17021,7 +17043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="16" t="s">
         <v>219</v>
       </c>
@@ -17044,7 +17066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
         <v>571</v>
       </c>
@@ -17067,7 +17089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="16" t="s">
         <v>571</v>
       </c>
@@ -17090,7 +17112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="s">
         <v>219</v>
       </c>
@@ -17113,7 +17135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="16" t="s">
         <v>219</v>
       </c>
@@ -17136,7 +17158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="s">
         <v>219</v>
       </c>
@@ -17159,7 +17181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="16" t="s">
         <v>219</v>
       </c>
@@ -17182,7 +17204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="s">
         <v>219</v>
       </c>
@@ -17205,7 +17227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="16" t="s">
         <v>219</v>
       </c>
@@ -17228,7 +17250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="s">
         <v>219</v>
       </c>
@@ -17251,7 +17273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="16" t="s">
         <v>219</v>
       </c>
@@ -17274,7 +17296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="16" t="s">
         <v>219</v>
       </c>
@@ -17297,7 +17319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="16" t="s">
         <v>219</v>
       </c>
@@ -17320,7 +17342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="s">
         <v>219</v>
       </c>
@@ -17343,7 +17365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="16" t="s">
         <v>571</v>
       </c>
@@ -17366,7 +17388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="s">
         <v>219</v>
       </c>
@@ -17389,7 +17411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="16" t="s">
         <v>571</v>
       </c>
@@ -17412,7 +17434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="s">
         <v>571</v>
       </c>
@@ -17435,7 +17457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="16" t="s">
         <v>219</v>
       </c>
@@ -17458,7 +17480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="s">
         <v>571</v>
       </c>
@@ -17481,7 +17503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="16" t="s">
         <v>219</v>
       </c>
@@ -17504,7 +17526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="s">
         <v>219</v>
       </c>
@@ -17527,7 +17549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="16" t="s">
         <v>571</v>
       </c>
@@ -17550,7 +17572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="s">
         <v>219</v>
       </c>
@@ -17573,7 +17595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="16" t="s">
         <v>219</v>
       </c>
@@ -17596,7 +17618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="s">
         <v>571</v>
       </c>
@@ -17619,7 +17641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="16" t="s">
         <v>571</v>
       </c>
@@ -17642,7 +17664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="s">
         <v>219</v>
       </c>
@@ -17665,7 +17687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="16" t="s">
         <v>219</v>
       </c>
@@ -17688,7 +17710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="s">
         <v>219</v>
       </c>
@@ -17711,7 +17733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="16" t="s">
         <v>219</v>
       </c>
@@ -17734,7 +17756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="s">
         <v>219</v>
       </c>
@@ -17757,7 +17779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="16" t="s">
         <v>219</v>
       </c>
@@ -17780,7 +17802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="s">
         <v>571</v>
       </c>
@@ -17803,7 +17825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
         <v>219</v>
       </c>
@@ -17826,7 +17848,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="s">
         <v>571</v>
       </c>
@@ -17849,7 +17871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="16" t="s">
         <v>219</v>
       </c>
@@ -17872,7 +17894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="s">
         <v>571</v>
       </c>
@@ -17895,7 +17917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="16" t="s">
         <v>219</v>
       </c>
@@ -17918,7 +17940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>219</v>
       </c>
@@ -17941,7 +17963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="16" t="s">
         <v>571</v>
       </c>
@@ -17964,7 +17986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="s">
         <v>219</v>
       </c>
@@ -17987,7 +18009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="16" t="s">
         <v>219</v>
       </c>
@@ -18010,7 +18032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="s">
         <v>571</v>
       </c>
@@ -18033,7 +18055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="16" t="s">
         <v>219</v>
       </c>
@@ -18056,7 +18078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="s">
         <v>219</v>
       </c>
@@ -18079,7 +18101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="16" t="s">
         <v>571</v>
       </c>
@@ -18102,7 +18124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="s">
         <v>219</v>
       </c>
@@ -18125,7 +18147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
         <v>571</v>
       </c>
@@ -18148,7 +18170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="s">
         <v>571</v>
       </c>
@@ -18171,7 +18193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="16" t="s">
         <v>219</v>
       </c>
@@ -18194,7 +18216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="16" t="s">
         <v>571</v>
       </c>
@@ -18217,7 +18239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="16" t="s">
         <v>571</v>
       </c>
@@ -18240,7 +18262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="16" t="s">
         <v>219</v>
       </c>
@@ -18263,7 +18285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="16" t="s">
         <v>219</v>
       </c>
@@ -18286,7 +18308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="s">
         <v>219</v>
       </c>
@@ -18309,7 +18331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="16" t="s">
         <v>219</v>
       </c>
@@ -18332,7 +18354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="s">
         <v>219</v>
       </c>
@@ -18355,7 +18377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="16" t="s">
         <v>219</v>
       </c>
@@ -18378,7 +18400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="s">
         <v>219</v>
       </c>
@@ -18401,7 +18423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="16" t="s">
         <v>219</v>
       </c>
@@ -18424,7 +18446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="s">
         <v>219</v>
       </c>
@@ -18447,7 +18469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="16" t="s">
         <v>219</v>
       </c>
@@ -18470,7 +18492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="s">
         <v>571</v>
       </c>
@@ -18493,7 +18515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="16" t="s">
         <v>571</v>
       </c>
@@ -18516,7 +18538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="16" t="s">
         <v>219</v>
       </c>
@@ -18539,7 +18561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="16" t="s">
         <v>219</v>
       </c>
@@ -18562,7 +18584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="16" t="s">
         <v>571</v>
       </c>
@@ -18585,7 +18607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="16" t="s">
         <v>571</v>
       </c>
@@ -18608,7 +18630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="16" t="s">
         <v>219</v>
       </c>
@@ -18631,7 +18653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="16" t="s">
         <v>219</v>
       </c>
@@ -18654,7 +18676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="16" t="s">
         <v>219</v>
       </c>
@@ -18677,7 +18699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="16" t="s">
         <v>571</v>
       </c>
@@ -18700,7 +18722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="16" t="s">
         <v>219</v>
       </c>
@@ -18723,7 +18745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="16" t="s">
         <v>571</v>
       </c>
@@ -18746,7 +18768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="16" t="s">
         <v>219</v>
       </c>
@@ -18769,7 +18791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="16" t="s">
         <v>219</v>
       </c>
@@ -18792,7 +18814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="s">
         <v>571</v>
       </c>
@@ -18815,7 +18837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="16" t="s">
         <v>219</v>
       </c>
@@ -18838,7 +18860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="s">
         <v>219</v>
       </c>
@@ -18861,7 +18883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="16" t="s">
         <v>219</v>
       </c>
@@ -18884,7 +18906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="s">
         <v>219</v>
       </c>
@@ -18907,7 +18929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="16" t="s">
         <v>219</v>
       </c>
@@ -18930,7 +18952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="s">
         <v>219</v>
       </c>
@@ -18953,7 +18975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="16" t="s">
         <v>219</v>
       </c>
@@ -18976,7 +18998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="16" t="s">
         <v>571</v>
       </c>
@@ -18999,7 +19021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="16" t="s">
         <v>219</v>
       </c>
@@ -19022,7 +19044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="s">
         <v>571</v>
       </c>
@@ -19045,7 +19067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="17" t="s">
         <v>571</v>
       </c>
@@ -19068,7 +19090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="s">
         <v>219</v>
       </c>
@@ -19091,7 +19113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="16" t="s">
         <v>219</v>
       </c>
@@ -19114,7 +19136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="s">
         <v>219</v>
       </c>
@@ -19137,7 +19159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="16" t="s">
         <v>219</v>
       </c>
@@ -19160,7 +19182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="16" t="s">
         <v>571</v>
       </c>
@@ -19183,7 +19205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="16" t="s">
         <v>571</v>
       </c>
@@ -19206,7 +19228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="16" t="s">
         <v>219</v>
       </c>
@@ -19229,7 +19251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="16" t="s">
         <v>219</v>
       </c>
@@ -19252,7 +19274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="16" t="s">
         <v>219</v>
       </c>
@@ -19275,7 +19297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="16" t="s">
         <v>571</v>
       </c>
@@ -19298,7 +19320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="16" t="s">
         <v>219</v>
       </c>
@@ -19321,7 +19343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="16" t="s">
         <v>219</v>
       </c>
@@ -19344,7 +19366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="16" t="s">
         <v>219</v>
       </c>
@@ -19367,7 +19389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="16" t="s">
         <v>219</v>
       </c>
@@ -19390,7 +19412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="16" t="s">
         <v>219</v>
       </c>
@@ -19413,7 +19435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="16" t="s">
         <v>219</v>
       </c>
@@ -19436,7 +19458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="s">
         <v>571</v>
       </c>
@@ -19459,7 +19481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="16" t="s">
         <v>571</v>
       </c>
@@ -19482,7 +19504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="16" t="s">
         <v>219</v>
       </c>
@@ -19505,7 +19527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="16" t="s">
         <v>219</v>
       </c>
@@ -19528,7 +19550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="s">
         <v>219</v>
       </c>
@@ -19551,7 +19573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="16" t="s">
         <v>571</v>
       </c>
@@ -19574,7 +19596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="s">
         <v>219</v>
       </c>
@@ -19597,7 +19619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="17" t="s">
         <v>219</v>
       </c>
@@ -19620,7 +19642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="16" t="s">
         <v>219</v>
       </c>
@@ -19643,7 +19665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="16" t="s">
         <v>571</v>
       </c>
@@ -19666,7 +19688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="s">
         <v>219</v>
       </c>
@@ -19689,7 +19711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="16" t="s">
         <v>219</v>
       </c>
@@ -19712,7 +19734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="16" t="s">
         <v>571</v>
       </c>
@@ -19735,7 +19757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="16" t="s">
         <v>219</v>
       </c>
@@ -19758,7 +19780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="16" t="s">
         <v>219</v>
       </c>
@@ -19781,7 +19803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="16" t="s">
         <v>219</v>
       </c>
@@ -19804,7 +19826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="16" t="s">
         <v>219</v>
       </c>
@@ -19827,7 +19849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="16" t="s">
         <v>219</v>
       </c>
@@ -19850,7 +19872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="16" t="s">
         <v>571</v>
       </c>
@@ -19873,7 +19895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="16" t="s">
         <v>571</v>
       </c>
@@ -19896,7 +19918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="16" t="s">
         <v>219</v>
       </c>
@@ -19919,7 +19941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="16" t="s">
         <v>571</v>
       </c>
@@ -19942,7 +19964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="16" t="s">
         <v>571</v>
       </c>
@@ -19965,7 +19987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="16" t="s">
         <v>571</v>
       </c>
@@ -19988,7 +20010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="16" t="s">
         <v>571</v>
       </c>
@@ -20011,7 +20033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="16" t="s">
         <v>219</v>
       </c>
@@ -20034,7 +20056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="16" t="s">
         <v>219</v>
       </c>
@@ -20057,7 +20079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="16" t="s">
         <v>219</v>
       </c>
@@ -20080,7 +20102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="16" t="s">
         <v>219</v>
       </c>
@@ -20103,7 +20125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="16" t="s">
         <v>219</v>
       </c>
@@ -20126,7 +20148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="16" t="s">
         <v>219</v>
       </c>
@@ -20149,7 +20171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="16" t="s">
         <v>219</v>
       </c>
@@ -20172,7 +20194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="16" t="s">
         <v>571</v>
       </c>
@@ -20195,7 +20217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="16" t="s">
         <v>571</v>
       </c>
@@ -20218,7 +20240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="16" t="s">
         <v>571</v>
       </c>
@@ -20241,7 +20263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="16" t="s">
         <v>219</v>
       </c>
@@ -20264,7 +20286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="16" t="s">
         <v>571</v>
       </c>
@@ -20287,7 +20309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="16" t="s">
         <v>219</v>
       </c>
@@ -20310,7 +20332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="16" t="s">
         <v>219</v>
       </c>
@@ -20333,7 +20355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="16" t="s">
         <v>571</v>
       </c>
@@ -20356,7 +20378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="16" t="s">
         <v>219</v>
       </c>
@@ -20379,7 +20401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="16" t="s">
         <v>571</v>
       </c>
@@ -20402,7 +20424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="16" t="s">
         <v>219</v>
       </c>
@@ -20425,7 +20447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="16" t="s">
         <v>219</v>
       </c>
@@ -20448,7 +20470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="16" t="s">
         <v>219</v>
       </c>
@@ -20471,7 +20493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="16" t="s">
         <v>219</v>
       </c>
@@ -20494,7 +20516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="16" t="s">
         <v>571</v>
       </c>
@@ -20517,7 +20539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="16" t="s">
         <v>571</v>
       </c>
@@ -20540,7 +20562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="16" t="s">
         <v>219</v>
       </c>
@@ -20563,7 +20585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="16" t="s">
         <v>219</v>
       </c>
@@ -20586,7 +20608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="16" t="s">
         <v>219</v>
       </c>
@@ -20609,7 +20631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="16" t="s">
         <v>219</v>
       </c>
@@ -20632,7 +20654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="16" t="s">
         <v>219</v>
       </c>
@@ -20655,7 +20677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="16" t="s">
         <v>219</v>
       </c>
@@ -20678,7 +20700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="16" t="s">
         <v>219</v>
       </c>
@@ -20701,7 +20723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="16" t="s">
         <v>219</v>
       </c>
@@ -20724,7 +20746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="16" t="s">
         <v>219</v>
       </c>
@@ -20747,7 +20769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="18" t="s">
         <v>571</v>
       </c>
@@ -20770,7 +20792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="16" t="s">
         <v>219</v>
       </c>
@@ -20793,7 +20815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="16" t="s">
         <v>219</v>
       </c>
@@ -20816,7 +20838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="16" t="s">
         <v>219</v>
       </c>
@@ -20839,7 +20861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="16" t="s">
         <v>219</v>
       </c>
@@ -20862,7 +20884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="16" t="s">
         <v>219</v>
       </c>
@@ -20885,7 +20907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="16" t="s">
         <v>219</v>
       </c>
@@ -20908,7 +20930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
         <v>24</v>
       </c>
@@ -20931,7 +20953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="16" t="s">
         <v>219</v>
       </c>
@@ -20954,7 +20976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="16" t="s">
         <v>571</v>
       </c>
@@ -20977,7 +20999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="16" t="s">
         <v>219</v>
       </c>
@@ -21000,7 +21022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="16" t="s">
         <v>219</v>
       </c>
@@ -21023,7 +21045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="16" t="s">
         <v>571</v>
       </c>
@@ -21046,7 +21068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="16" t="s">
         <v>219</v>
       </c>
@@ -21069,7 +21091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="16" t="s">
         <v>219</v>
       </c>
@@ -21092,7 +21114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="16" t="s">
         <v>219</v>
       </c>
@@ -21115,7 +21137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="16" t="s">
         <v>219</v>
       </c>
@@ -21138,7 +21160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="16" t="s">
         <v>219</v>
       </c>
@@ -21161,7 +21183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="16" t="s">
         <v>219</v>
       </c>
@@ -21184,7 +21206,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="16" t="s">
         <v>219</v>
       </c>
@@ -21207,7 +21229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="16" t="s">
         <v>571</v>
       </c>
@@ -21230,7 +21252,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="16" t="s">
         <v>219</v>
       </c>
@@ -21253,7 +21275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="16" t="s">
         <v>219</v>
       </c>
@@ -21276,7 +21298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="16" t="s">
         <v>219</v>
       </c>
@@ -21299,7 +21321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="16" t="s">
         <v>571</v>
       </c>
@@ -21322,7 +21344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="16" t="s">
         <v>219</v>
       </c>
@@ -21345,7 +21367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="16" t="s">
         <v>219</v>
       </c>
@@ -21368,7 +21390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="16" t="s">
         <v>219</v>
       </c>
@@ -21391,7 +21413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="16" t="s">
         <v>219</v>
       </c>
@@ -21414,7 +21436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="16" t="s">
         <v>571</v>
       </c>
@@ -21437,7 +21459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="16" t="s">
         <v>571</v>
       </c>
@@ -21460,7 +21482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="16" t="s">
         <v>571</v>
       </c>
@@ -21483,7 +21505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="16" t="s">
         <v>219</v>
       </c>
@@ -21506,7 +21528,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="16" t="s">
         <v>571</v>
       </c>
@@ -21529,7 +21551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="16" t="s">
         <v>219</v>
       </c>
@@ -21552,7 +21574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
         <v>571</v>
       </c>
@@ -21575,7 +21597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="16" t="s">
         <v>571</v>
       </c>
@@ -21598,7 +21620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="16" t="s">
         <v>571</v>
       </c>
@@ -21621,7 +21643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="16" t="s">
         <v>219</v>
       </c>
@@ -21644,7 +21666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="16" t="s">
         <v>219</v>
       </c>
@@ -21667,7 +21689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="16" t="s">
         <v>219</v>
       </c>
@@ -21690,7 +21712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
         <v>571</v>
       </c>
@@ -21713,7 +21735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
         <v>571</v>
       </c>
@@ -21736,7 +21758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="16" t="s">
         <v>571</v>
       </c>
@@ -21759,7 +21781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="16" t="s">
         <v>219</v>
       </c>
@@ -21782,7 +21804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="16" t="s">
         <v>219</v>
       </c>
@@ -21805,7 +21827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="16" t="s">
         <v>571</v>
       </c>
@@ -21828,7 +21850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="16" t="s">
         <v>219</v>
       </c>
@@ -21851,7 +21873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="16" t="s">
         <v>219</v>
       </c>
@@ -21874,7 +21896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="16" t="s">
         <v>571</v>
       </c>
@@ -21897,7 +21919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="16" t="s">
         <v>219</v>
       </c>
@@ -21920,7 +21942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="16" t="s">
         <v>219</v>
       </c>
@@ -21943,7 +21965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="16" t="s">
         <v>219</v>
       </c>
@@ -21966,7 +21988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="16" t="s">
         <v>219</v>
       </c>
@@ -21989,7 +22011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="16" t="s">
         <v>219</v>
       </c>
@@ -22012,7 +22034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="16" t="s">
         <v>219</v>
       </c>
@@ -22035,7 +22057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="16" t="s">
         <v>219</v>
       </c>
@@ -22058,7 +22080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="16" t="s">
         <v>219</v>
       </c>
@@ -22081,7 +22103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="16" t="s">
         <v>219</v>
       </c>
@@ -22104,7 +22126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="16" t="s">
         <v>219</v>
       </c>
@@ -22127,7 +22149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="16" t="s">
         <v>571</v>
       </c>
@@ -22150,7 +22172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="16" t="s">
         <v>219</v>
       </c>
@@ -22173,7 +22195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="16" t="s">
         <v>571</v>
       </c>
@@ -22196,7 +22218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="16" t="s">
         <v>219</v>
       </c>
@@ -22219,7 +22241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="16" t="s">
         <v>219</v>
       </c>
@@ -22242,7 +22264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="16" t="s">
         <v>219</v>
       </c>
@@ -22265,7 +22287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="16" t="s">
         <v>219</v>
       </c>
@@ -22288,7 +22310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="16" t="s">
         <v>571</v>
       </c>
@@ -22311,7 +22333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="16" t="s">
         <v>219</v>
       </c>
@@ -22334,7 +22356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="16" t="s">
         <v>571</v>
       </c>
@@ -22357,7 +22379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="16" t="s">
         <v>219</v>
       </c>
@@ -22380,7 +22402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="16" t="s">
         <v>219</v>
       </c>
@@ -22403,7 +22425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="16" t="s">
         <v>219</v>
       </c>
@@ -22426,7 +22448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="17" t="s">
         <v>219</v>
       </c>
@@ -22449,7 +22471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="16" t="s">
         <v>219</v>
       </c>
@@ -22472,7 +22494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="16" t="s">
         <v>219</v>
       </c>
@@ -22495,7 +22517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="16" t="s">
         <v>219</v>
       </c>
@@ -22518,7 +22540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="16" t="s">
         <v>571</v>
       </c>
@@ -22541,7 +22563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="16" t="s">
         <v>219</v>
       </c>
@@ -22564,7 +22586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="16" t="s">
         <v>219</v>
       </c>
@@ -22587,7 +22609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="16" t="s">
         <v>219</v>
       </c>
@@ -22610,7 +22632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="16" t="s">
         <v>219</v>
       </c>
@@ -22633,7 +22655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="16" t="s">
         <v>571</v>
       </c>
@@ -22656,7 +22678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="16" t="s">
         <v>219</v>
       </c>
@@ -22679,7 +22701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="16" t="s">
         <v>219</v>
       </c>
@@ -22702,7 +22724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="16" t="s">
         <v>571</v>
       </c>
@@ -22725,7 +22747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>571</v>
       </c>
@@ -22748,7 +22770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>219</v>
       </c>
@@ -22771,7 +22793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="16" t="s">
         <v>219</v>
       </c>
@@ -22794,7 +22816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="16" t="s">
         <v>219</v>
       </c>
@@ -22817,7 +22839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="16" t="s">
         <v>571</v>
       </c>
@@ -22840,7 +22862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="16" t="s">
         <v>571</v>
       </c>
@@ -22863,7 +22885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="16" t="s">
         <v>571</v>
       </c>
@@ -22886,7 +22908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="17" t="s">
         <v>24</v>
       </c>
@@ -22909,7 +22931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="16" t="s">
         <v>219</v>
       </c>
@@ -22932,7 +22954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="16" t="s">
         <v>219</v>
       </c>
@@ -22955,7 +22977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="16" t="s">
         <v>219</v>
       </c>
@@ -22978,7 +23000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="16" t="s">
         <v>219</v>
       </c>
@@ -23001,7 +23023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="16" t="s">
         <v>219</v>
       </c>
@@ -23024,7 +23046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="16" t="s">
         <v>571</v>
       </c>
@@ -23047,7 +23069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="16" t="s">
         <v>219</v>
       </c>
@@ -23070,7 +23092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="16" t="s">
         <v>219</v>
       </c>
@@ -23093,7 +23115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="16" t="s">
         <v>571</v>
       </c>
@@ -23116,7 +23138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="16" t="s">
         <v>219</v>
       </c>
@@ -23139,7 +23161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="16" t="s">
         <v>219</v>
       </c>
@@ -23162,7 +23184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="16" t="s">
         <v>219</v>
       </c>
@@ -23185,7 +23207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="16" t="s">
         <v>219</v>
       </c>
@@ -23208,7 +23230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="16" t="s">
         <v>571</v>
       </c>
@@ -23231,7 +23253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="16" t="s">
         <v>219</v>
       </c>
@@ -23254,7 +23276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="16" t="s">
         <v>571</v>
       </c>
@@ -23277,7 +23299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="16" t="s">
         <v>219</v>
       </c>
@@ -23300,7 +23322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="16" t="s">
         <v>219</v>
       </c>
@@ -23323,7 +23345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="16" t="s">
         <v>219</v>
       </c>
@@ -23346,7 +23368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="16" t="s">
         <v>219</v>
       </c>
@@ -23369,7 +23391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="16" t="s">
         <v>219</v>
       </c>
@@ -23392,7 +23414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="16" t="s">
         <v>219</v>
       </c>
@@ -23415,7 +23437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="16" t="s">
         <v>219</v>
       </c>
@@ -23438,7 +23460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="16" t="s">
         <v>219</v>
       </c>
@@ -23461,7 +23483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="16" t="s">
         <v>219</v>
       </c>
@@ -23484,7 +23506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="16" t="s">
         <v>219</v>
       </c>
@@ -23507,7 +23529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="16" t="s">
         <v>571</v>
       </c>
@@ -23530,7 +23552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="17" t="s">
         <v>571</v>
       </c>
@@ -23553,7 +23575,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="16" t="s">
         <v>571</v>
       </c>
@@ -23576,7 +23598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="17" t="s">
         <v>571</v>
       </c>
@@ -23599,7 +23621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="16" t="s">
         <v>219</v>
       </c>
@@ -23622,7 +23644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="17" t="s">
         <v>571</v>
       </c>
@@ -23645,7 +23667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="16" t="s">
         <v>219</v>
       </c>
@@ -23668,7 +23690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="16" t="s">
         <v>219</v>
       </c>
@@ -23691,7 +23713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="16" t="s">
         <v>219</v>
       </c>
@@ -23714,7 +23736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="17" t="s">
         <v>571</v>
       </c>
@@ -23737,7 +23759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="16" t="s">
         <v>219</v>
       </c>
@@ -23760,7 +23782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="17" t="s">
         <v>571</v>
       </c>
@@ -23783,7 +23805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="17" t="s">
         <v>571</v>
       </c>
@@ -23806,7 +23828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="16" t="s">
         <v>571</v>
       </c>
@@ -23829,7 +23851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="16" t="s">
         <v>219</v>
       </c>
@@ -23852,7 +23874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="16" t="s">
         <v>571</v>
       </c>
@@ -23875,7 +23897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="16" t="s">
         <v>219</v>
       </c>
@@ -23898,7 +23920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="16" t="s">
         <v>571</v>
       </c>
@@ -23921,7 +23943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="16" t="s">
         <v>219</v>
       </c>
@@ -23944,7 +23966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="16" t="s">
         <v>219</v>
       </c>
@@ -23967,7 +23989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="16" t="s">
         <v>219</v>
       </c>
@@ -23990,7 +24012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="16" t="s">
         <v>219</v>
       </c>
@@ -24013,7 +24035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="16" t="s">
         <v>571</v>
       </c>
@@ -24036,7 +24058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="16" t="s">
         <v>571</v>
       </c>
@@ -24059,7 +24081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="16" t="s">
         <v>571</v>
       </c>
@@ -24082,7 +24104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="16" t="s">
         <v>219</v>
       </c>
@@ -24105,7 +24127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="16" t="s">
         <v>571</v>
       </c>
@@ -24128,7 +24150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="16" t="s">
         <v>219</v>
       </c>
@@ -24151,7 +24173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="16" t="s">
         <v>219</v>
       </c>
@@ -24174,7 +24196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="16" t="s">
         <v>571</v>
       </c>
@@ -24197,7 +24219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="16" t="s">
         <v>571</v>
       </c>
@@ -24220,7 +24242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="16" t="s">
         <v>219</v>
       </c>
@@ -24243,7 +24265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="16" t="s">
         <v>219</v>
       </c>
@@ -24266,7 +24288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="16" t="s">
         <v>571</v>
       </c>
@@ -24289,7 +24311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="16" t="s">
         <v>219</v>
       </c>
@@ -24312,7 +24334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="16" t="s">
         <v>219</v>
       </c>
@@ -24335,7 +24357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="16" t="s">
         <v>219</v>
       </c>
@@ -24358,7 +24380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="16" t="s">
         <v>219</v>
       </c>
@@ -24381,7 +24403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="16" t="s">
         <v>571</v>
       </c>
@@ -24404,7 +24426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="16" t="s">
         <v>571</v>
       </c>
@@ -24427,7 +24449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="16" t="s">
         <v>219</v>
       </c>
@@ -24450,7 +24472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="16" t="s">
         <v>219</v>
       </c>
@@ -24473,7 +24495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="16" t="s">
         <v>219</v>
       </c>
@@ -24496,7 +24518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="16" t="s">
         <v>219</v>
       </c>
@@ -24519,7 +24541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="16" t="s">
         <v>571</v>
       </c>
@@ -24542,7 +24564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="16" t="s">
         <v>219</v>
       </c>
@@ -24565,7 +24587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="16" t="s">
         <v>219</v>
       </c>
@@ -24588,7 +24610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="16" t="s">
         <v>219</v>
       </c>
@@ -24611,7 +24633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="16" t="s">
         <v>219</v>
       </c>
@@ -24634,7 +24656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="16" t="s">
         <v>571</v>
       </c>
@@ -24657,7 +24679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="16" t="s">
         <v>571</v>
       </c>
@@ -24680,7 +24702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="16" t="s">
         <v>219</v>
       </c>
@@ -24703,7 +24725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="16" t="s">
         <v>219</v>
       </c>
@@ -24726,7 +24748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="16" t="s">
         <v>571</v>
       </c>
@@ -24749,7 +24771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="16" t="s">
         <v>571</v>
       </c>
@@ -24772,7 +24794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="16" t="s">
         <v>571</v>
       </c>
@@ -24795,7 +24817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="16" t="s">
         <v>219</v>
       </c>
@@ -24818,7 +24840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="16" t="s">
         <v>219</v>
       </c>
@@ -24841,7 +24863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="16" t="s">
         <v>219</v>
       </c>
@@ -24864,7 +24886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="17" t="s">
         <v>571</v>
       </c>
@@ -24887,7 +24909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="16" t="s">
         <v>219</v>
       </c>
@@ -24910,7 +24932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="16" t="s">
         <v>571</v>
       </c>
@@ -24933,7 +24955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="16" t="s">
         <v>219</v>
       </c>
@@ -24956,7 +24978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="16" t="s">
         <v>219</v>
       </c>
@@ -24979,7 +25001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="16" t="s">
         <v>219</v>
       </c>
@@ -25002,7 +25024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="16" t="s">
         <v>219</v>
       </c>
@@ -25025,7 +25047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="16" t="s">
         <v>219</v>
       </c>
@@ -25048,7 +25070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="16" t="s">
         <v>219</v>
       </c>
@@ -25071,7 +25093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="17" t="s">
         <v>571</v>
       </c>
@@ -25094,7 +25116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="16" t="s">
         <v>571</v>
       </c>
@@ -25117,7 +25139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="16" t="s">
         <v>219</v>
       </c>
@@ -25140,7 +25162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="16" t="s">
         <v>219</v>
       </c>
@@ -25163,7 +25185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="16" t="s">
         <v>219</v>
       </c>
@@ -25186,7 +25208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="16" t="s">
         <v>219</v>
       </c>
@@ -25209,7 +25231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="16" t="s">
         <v>219</v>
       </c>
@@ -25232,7 +25254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="16" t="s">
         <v>219</v>
       </c>
@@ -25255,7 +25277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="16" t="s">
         <v>219</v>
       </c>
@@ -25278,7 +25300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="16" t="s">
         <v>219</v>
       </c>
@@ -25301,7 +25323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="16" t="s">
         <v>571</v>
       </c>
@@ -25324,7 +25346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="16" t="s">
         <v>571</v>
       </c>
@@ -25347,7 +25369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="16" t="s">
         <v>219</v>
       </c>
@@ -25370,7 +25392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="16" t="s">
         <v>219</v>
       </c>
@@ -25393,7 +25415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="16" t="s">
         <v>219</v>
       </c>
@@ -25416,7 +25438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="16" t="s">
         <v>219</v>
       </c>
@@ -25439,7 +25461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="16" t="s">
         <v>219</v>
       </c>
@@ -25462,7 +25484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="16" t="s">
         <v>219</v>
       </c>
@@ -25485,7 +25507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="16" t="s">
         <v>219</v>
       </c>
@@ -25508,7 +25530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="16" t="s">
         <v>219</v>
       </c>
@@ -25531,7 +25553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="16" t="s">
         <v>219</v>
       </c>
@@ -25554,7 +25576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="17" t="s">
         <v>219</v>
       </c>
@@ -25577,7 +25599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="16" t="s">
         <v>219</v>
       </c>
@@ -25600,7 +25622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="16" t="s">
         <v>219</v>
       </c>
@@ -25623,7 +25645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="16" t="s">
         <v>219</v>
       </c>
@@ -25646,7 +25668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="17" t="s">
         <v>219</v>
       </c>
@@ -25669,7 +25691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="16" t="s">
         <v>219</v>
       </c>
@@ -25692,7 +25714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="16" t="s">
         <v>219</v>
       </c>
@@ -25715,7 +25737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="16" t="s">
         <v>219</v>
       </c>
@@ -25738,7 +25760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="16" t="s">
         <v>219</v>
       </c>
@@ -25761,7 +25783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="16" t="s">
         <v>219</v>
       </c>
@@ -25784,7 +25806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="16" t="s">
         <v>571</v>
       </c>
@@ -25807,7 +25829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" s="16" t="s">
         <v>571</v>
       </c>
@@ -25830,7 +25852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="16" t="s">
         <v>571</v>
       </c>
@@ -25853,7 +25875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" s="16" t="s">
         <v>571</v>
       </c>
@@ -25876,7 +25898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="16" t="s">
         <v>219</v>
       </c>
@@ -25899,7 +25921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" s="16" t="s">
         <v>219</v>
       </c>
@@ -25922,7 +25944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" s="16" t="s">
         <v>219</v>
       </c>
@@ -25945,7 +25967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="16" t="s">
         <v>219</v>
       </c>
@@ -25968,7 +25990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="16" t="s">
         <v>219</v>
       </c>
@@ -25991,7 +26013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" s="16" t="s">
         <v>219</v>
       </c>
@@ -26014,7 +26036,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" s="16" t="s">
         <v>219</v>
       </c>
@@ -26037,7 +26059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" s="16" t="s">
         <v>219</v>
       </c>
@@ -26060,7 +26082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" s="16" t="s">
         <v>219</v>
       </c>
@@ -26083,7 +26105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="16" t="s">
         <v>219</v>
       </c>
@@ -26106,7 +26128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" s="16" t="s">
         <v>571</v>
       </c>
@@ -26129,7 +26151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="16" t="s">
         <v>571</v>
       </c>
@@ -26152,7 +26174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="16" t="s">
         <v>219</v>
       </c>
@@ -26175,7 +26197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="16" t="s">
         <v>571</v>
       </c>
@@ -26198,7 +26220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="16" t="s">
         <v>24</v>
       </c>
@@ -26221,7 +26243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="16" t="s">
         <v>24</v>
       </c>
@@ -26244,7 +26266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="16" t="s">
         <v>24</v>
       </c>
@@ -26267,7 +26289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="16" t="s">
         <v>24</v>
       </c>
@@ -26290,7 +26312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="16" t="s">
         <v>24</v>
       </c>
@@ -26313,7 +26335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="16" t="s">
         <v>24</v>
       </c>
@@ -26336,7 +26358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" s="16" t="s">
         <v>24</v>
       </c>
@@ -26359,7 +26381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="16" t="s">
         <v>24</v>
       </c>
@@ -26382,7 +26404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" s="16" t="s">
         <v>24</v>
       </c>
@@ -26405,7 +26427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" s="16" t="s">
         <v>24</v>
       </c>
@@ -26428,7 +26450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" s="16" t="s">
         <v>24</v>
       </c>
@@ -26451,7 +26473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" s="16" t="s">
         <v>24</v>
       </c>
@@ -26474,7 +26496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="16" t="s">
         <v>24</v>
       </c>
@@ -26497,7 +26519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" s="16" t="s">
         <v>24</v>
       </c>
@@ -26520,7 +26542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="16" t="s">
         <v>24</v>
       </c>
@@ -26543,7 +26565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="16" t="s">
         <v>24</v>
       </c>
@@ -26566,7 +26588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="16" t="s">
         <v>24</v>
       </c>
@@ -26589,7 +26611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="16" t="s">
         <v>24</v>
       </c>
@@ -26612,7 +26634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="16" t="s">
         <v>24</v>
       </c>
@@ -26635,7 +26657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" s="16" t="s">
         <v>24</v>
       </c>
@@ -26658,7 +26680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="16" t="s">
         <v>24</v>
       </c>
@@ -26681,7 +26703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="16" t="s">
         <v>24</v>
       </c>
@@ -26704,7 +26726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="16" t="s">
         <v>24</v>
       </c>
@@ -26727,7 +26749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" s="16" t="s">
         <v>24</v>
       </c>
@@ -26750,7 +26772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="16" t="s">
         <v>24</v>
       </c>
@@ -26773,7 +26795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" s="16" t="s">
         <v>24</v>
       </c>
@@ -26796,7 +26818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" s="16" t="s">
         <v>24</v>
       </c>
@@ -26819,7 +26841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="16" t="s">
         <v>24</v>
       </c>
@@ -26842,7 +26864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="16" t="s">
         <v>24</v>
       </c>
@@ -26865,7 +26887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" s="16" t="s">
         <v>24</v>
       </c>
@@ -26888,7 +26910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" s="16" t="s">
         <v>24</v>
       </c>
@@ -26911,7 +26933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" s="16" t="s">
         <v>24</v>
       </c>
@@ -26934,7 +26956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="16" t="s">
         <v>24</v>
       </c>
@@ -26957,7 +26979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="16" t="s">
         <v>24</v>
       </c>
@@ -26980,7 +27002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" s="16" t="s">
         <v>24</v>
       </c>
@@ -27003,7 +27025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" s="16" t="s">
         <v>24</v>
       </c>
@@ -27026,7 +27048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" s="16" t="s">
         <v>24</v>
       </c>
@@ -27049,7 +27071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="16" t="s">
         <v>24</v>
       </c>
@@ -27072,7 +27094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" s="16" t="s">
         <v>24</v>
       </c>
@@ -27095,7 +27117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" s="16" t="s">
         <v>24</v>
       </c>
@@ -27118,7 +27140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" s="16" t="s">
         <v>24</v>
       </c>
@@ -27141,7 +27163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" s="16" t="s">
         <v>24</v>
       </c>
@@ -27164,7 +27186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" s="16" t="s">
         <v>24</v>
       </c>
@@ -27187,7 +27209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" s="16" t="s">
         <v>24</v>
       </c>
@@ -27210,7 +27232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" s="16" t="s">
         <v>24</v>
       </c>
@@ -27233,7 +27255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" s="16" t="s">
         <v>24</v>
       </c>
@@ -27256,7 +27278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" s="16" t="s">
         <v>24</v>
       </c>
@@ -27279,7 +27301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="16" t="s">
         <v>24</v>
       </c>
@@ -27302,7 +27324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" s="16" t="s">
         <v>24</v>
       </c>
@@ -27325,7 +27347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" s="16" t="s">
         <v>24</v>
       </c>
@@ -27348,7 +27370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" s="16" t="s">
         <v>24</v>
       </c>
@@ -27371,7 +27393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" s="16" t="s">
         <v>24</v>
       </c>
@@ -27394,7 +27416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="16" t="s">
         <v>24</v>
       </c>
@@ -27417,7 +27439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" s="16" t="s">
         <v>24</v>
       </c>
@@ -27440,7 +27462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="16" t="s">
         <v>24</v>
       </c>
@@ -27463,7 +27485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="16" t="s">
         <v>24</v>
       </c>
@@ -27486,7 +27508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="16" t="s">
         <v>24</v>
       </c>
@@ -27509,7 +27531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="16" t="s">
         <v>24</v>
       </c>
@@ -27532,7 +27554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="16" t="s">
         <v>24</v>
       </c>
@@ -27555,7 +27577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" s="16" t="s">
         <v>24</v>
       </c>
@@ -27578,7 +27600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" s="16" t="s">
         <v>24</v>
       </c>
@@ -27601,7 +27623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" s="16" t="s">
         <v>24</v>
       </c>
@@ -27624,7 +27646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="16" t="s">
         <v>24</v>
       </c>
@@ -27647,7 +27669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="16" t="s">
         <v>24</v>
       </c>
@@ -27670,7 +27692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" s="16" t="s">
         <v>24</v>
       </c>
@@ -27693,7 +27715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="16" t="s">
         <v>24</v>
       </c>
@@ -27716,7 +27738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="16" t="s">
         <v>24</v>
       </c>
@@ -27739,7 +27761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="16" t="s">
         <v>24</v>
       </c>
@@ -27762,7 +27784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" s="16" t="s">
         <v>24</v>
       </c>
@@ -27785,7 +27807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" s="16" t="s">
         <v>24</v>
       </c>
@@ -27808,7 +27830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="16" t="s">
         <v>24</v>
       </c>
@@ -27831,7 +27853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" s="16" t="s">
         <v>24</v>
       </c>
@@ -27854,7 +27876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" s="16" t="s">
         <v>24</v>
       </c>
@@ -27877,7 +27899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" s="16" t="s">
         <v>24</v>
       </c>
@@ -27900,7 +27922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" s="16" t="s">
         <v>24</v>
       </c>
@@ -27923,7 +27945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="16" t="s">
         <v>24</v>
       </c>
@@ -27946,7 +27968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="16" t="s">
         <v>24</v>
       </c>
@@ -27969,7 +27991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="16" t="s">
         <v>24</v>
       </c>
@@ -27992,7 +28014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="16" t="s">
         <v>24</v>
       </c>
@@ -28015,7 +28037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="16" t="s">
         <v>24</v>
       </c>
@@ -28038,7 +28060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="16" t="s">
         <v>24</v>
       </c>
@@ -28061,7 +28083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="16" t="s">
         <v>24</v>
       </c>
@@ -28084,7 +28106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="16" t="s">
         <v>24</v>
       </c>
@@ -28107,7 +28129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="16" t="s">
         <v>24</v>
       </c>
@@ -28130,7 +28152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" s="16" t="s">
         <v>24</v>
       </c>
@@ -28153,7 +28175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" s="16" t="s">
         <v>24</v>
       </c>
@@ -28176,7 +28198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" s="16" t="s">
         <v>24</v>
       </c>
@@ -28199,7 +28221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" s="16" t="s">
         <v>24</v>
       </c>
@@ -28222,7 +28244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" s="16" t="s">
         <v>24</v>
       </c>
@@ -28245,7 +28267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" s="16" t="s">
         <v>24</v>
       </c>
@@ -28268,7 +28290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" s="16" t="s">
         <v>24</v>
       </c>
@@ -28291,7 +28313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" s="16" t="s">
         <v>24</v>
       </c>
@@ -28314,7 +28336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" s="16" t="s">
         <v>24</v>
       </c>
@@ -28337,7 +28359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" s="16" t="s">
         <v>24</v>
       </c>
@@ -28360,7 +28382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" s="16" t="s">
         <v>24</v>
       </c>
@@ -28383,7 +28405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" s="16" t="s">
         <v>24</v>
       </c>
@@ -28406,7 +28428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" s="16" t="s">
         <v>24</v>
       </c>
@@ -28429,7 +28451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" s="16" t="s">
         <v>24</v>
       </c>
@@ -28452,7 +28474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" s="16" t="s">
         <v>24</v>
       </c>
@@ -28475,7 +28497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" s="16" t="s">
         <v>24</v>
       </c>
@@ -28498,7 +28520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" s="16" t="s">
         <v>24</v>
       </c>
@@ -28521,7 +28543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" s="16" t="s">
         <v>24</v>
       </c>
@@ -28544,7 +28566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" s="16" t="s">
         <v>24</v>
       </c>
@@ -28567,7 +28589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" s="16" t="s">
         <v>24</v>
       </c>
@@ -28590,7 +28612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" s="16" t="s">
         <v>24</v>
       </c>
@@ -28613,7 +28635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" s="16" t="s">
         <v>24</v>
       </c>
@@ -28636,7 +28658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" s="16" t="s">
         <v>24</v>
       </c>
@@ -28659,7 +28681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" s="16" t="s">
         <v>24</v>
       </c>
@@ -28682,7 +28704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" s="16" t="s">
         <v>24</v>
       </c>
@@ -28705,7 +28727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" s="16" t="s">
         <v>24</v>
       </c>
@@ -28728,7 +28750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" s="16" t="s">
         <v>24</v>
       </c>
@@ -28751,7 +28773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" s="16" t="s">
         <v>24</v>
       </c>
@@ -28774,7 +28796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" s="16" t="s">
         <v>24</v>
       </c>
@@ -28797,7 +28819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" s="16" t="s">
         <v>24</v>
       </c>
@@ -28820,7 +28842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" s="16" t="s">
         <v>24</v>
       </c>
@@ -28843,7 +28865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" s="16" t="s">
         <v>24</v>
       </c>
@@ -28866,7 +28888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" s="16" t="s">
         <v>24</v>
       </c>
@@ -28889,7 +28911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" s="16" t="s">
         <v>24</v>
       </c>
@@ -28912,7 +28934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" s="16" t="s">
         <v>24</v>
       </c>
@@ -28935,7 +28957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" s="16" t="s">
         <v>24</v>
       </c>
@@ -28958,7 +28980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" s="16" t="s">
         <v>24</v>
       </c>
@@ -28981,7 +29003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" s="16" t="s">
         <v>24</v>
       </c>
@@ -29004,7 +29026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" s="16" t="s">
         <v>24</v>
       </c>
@@ -29027,7 +29049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" s="16" t="s">
         <v>24</v>
       </c>
@@ -29050,7 +29072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" s="16" t="s">
         <v>24</v>
       </c>
@@ -29073,7 +29095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" s="16" t="s">
         <v>24</v>
       </c>
@@ -29096,7 +29118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" s="16" t="s">
         <v>24</v>
       </c>
@@ -29119,7 +29141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="16" t="s">
         <v>24</v>
       </c>
@@ -29142,7 +29164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" s="16" t="s">
         <v>24</v>
       </c>
@@ -29165,7 +29187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" s="16" t="s">
         <v>24</v>
       </c>
@@ -29188,7 +29210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" s="16" t="s">
         <v>24</v>
       </c>
@@ -29211,7 +29233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" s="16" t="s">
         <v>24</v>
       </c>
@@ -29234,7 +29256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" s="16" t="s">
         <v>24</v>
       </c>
@@ -29257,7 +29279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" s="16" t="s">
         <v>24</v>
       </c>
@@ -29280,7 +29302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883" s="16" t="s">
         <v>24</v>
       </c>
@@ -29320,16 +29342,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -29342,7 +29364,7 @@
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="61"/>
       <c r="C2" s="69" t="s">
@@ -29351,7 +29373,7 @@
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="62" t="s">
@@ -29362,7 +29384,7 @@
       </c>
       <c r="E3" s="68"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
       <c r="C4" s="62"/>
@@ -29373,14 +29395,14 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="61"/>
       <c r="C5" s="62"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>890</v>
       </c>
@@ -29394,14 +29416,14 @@
         <v>370237</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="61"/>
       <c r="C7" s="62"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>47</v>
       </c>
@@ -29412,7 +29434,7 @@
         <v>345631</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>80</v>
       </c>
@@ -29423,7 +29445,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>191</v>
       </c>
@@ -29434,7 +29456,7 @@
         <v>345808</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>232</v>
       </c>
@@ -29445,7 +29467,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>242</v>
       </c>
@@ -29456,7 +29478,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>250</v>
       </c>
@@ -29467,7 +29489,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>261</v>
       </c>
@@ -29478,7 +29500,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>267</v>
       </c>
@@ -29489,7 +29511,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>279</v>
       </c>
@@ -29500,7 +29522,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>290</v>
       </c>
@@ -29511,7 +29533,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>296</v>
       </c>
@@ -29522,7 +29544,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>304</v>
       </c>
@@ -29533,7 +29555,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>319</v>
       </c>
@@ -29544,7 +29566,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>404</v>
       </c>
@@ -29555,7 +29577,7 @@
         <v>350991</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>328</v>
       </c>
@@ -29566,7 +29588,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>331</v>
       </c>
@@ -29577,7 +29599,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>339</v>
       </c>
@@ -29588,7 +29610,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>360</v>
       </c>
@@ -29599,7 +29621,7 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>304</v>
       </c>
@@ -29610,12 +29632,12 @@
         <v>6542</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="59"/>
       <c r="C27" s="54"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>368</v>
       </c>
@@ -29626,7 +29648,7 @@
         <v>345958</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>374</v>
       </c>
@@ -29637,7 +29659,7 @@
         <v>10779</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>380</v>
       </c>
@@ -29648,7 +29670,7 @@
         <v>11910</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>407</v>
       </c>
@@ -29659,7 +29681,7 @@
         <v>149872</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>339</v>
       </c>
@@ -29689,40 +29711,40 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5630" topLeftCell="T1"/>
-      <selection activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="T27" sqref="T27"/>
+      <pane xSplit="5625" topLeftCell="T1" activePane="topRight"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="topRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="49.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" customWidth="1"/>
-    <col min="8" max="8" width="64.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="52" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" customWidth="1"/>
-    <col min="19" max="19" width="135.7265625" customWidth="1"/>
-    <col min="20" max="20" width="103.81640625" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" customWidth="1"/>
-    <col min="24" max="24" width="15.81640625" customWidth="1"/>
-    <col min="25" max="25" width="53.1796875" customWidth="1"/>
-    <col min="26" max="26" width="35.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="135.7109375" customWidth="1"/>
+    <col min="20" max="20" width="103.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="25" max="25" width="53.140625" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>359</v>
       </c>
@@ -29784,7 +29806,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>345631</v>
       </c>
@@ -29846,7 +29868,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>429</v>
       </c>
@@ -29908,7 +29930,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>345808</v>
       </c>
@@ -29970,7 +29992,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>429</v>
       </c>
@@ -30032,7 +30054,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>429</v>
       </c>
@@ -30094,69 +30116,69 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="73" t="s">
         <v>260</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="75" t="s">
         <v>1307</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="76" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>429</v>
       </c>
@@ -30218,193 +30240,193 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="M9" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="75" t="s">
         <v>1308</v>
       </c>
-      <c r="T9" s="50" t="s">
+      <c r="T9" s="76" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="M10" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="S10" s="45" t="s">
+      <c r="S10" s="75" t="s">
         <v>1309</v>
       </c>
-      <c r="T10" s="50" t="s">
+      <c r="T10" s="76" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="12" t="s">
+      <c r="M11" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="73" t="s">
         <v>295</v>
       </c>
-      <c r="S11" s="45" t="s">
+      <c r="S11" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="77" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>429</v>
       </c>
@@ -30466,7 +30488,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>429</v>
       </c>
@@ -30528,7 +30550,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>429</v>
       </c>
@@ -30594,7 +30616,7 @@
       <c r="Y14" s="66"/>
       <c r="Z14" s="66"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>429</v>
       </c>
@@ -30660,7 +30682,7 @@
       <c r="Y15" s="66"/>
       <c r="Z15" s="66"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>429</v>
       </c>
@@ -30726,7 +30748,7 @@
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>429</v>
       </c>
@@ -30788,7 +30810,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6542</v>
       </c>
@@ -30809,7 +30831,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6542</v>
       </c>
@@ -30830,7 +30852,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>345958</v>
       </c>
@@ -30851,7 +30873,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10779</v>
       </c>
@@ -30869,10 +30891,10 @@
         <v>376</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>11910</v>
       </c>
@@ -30890,10 +30912,10 @@
         <v>382</v>
       </c>
       <c r="T22" s="41" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>350991</v>
       </c>
@@ -30911,10 +30933,10 @@
         <v>406</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>149872</v>
       </c>
@@ -30932,10 +30954,10 @@
         <v>409</v>
       </c>
       <c r="T24" s="39" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>345878</v>
       </c>
@@ -30955,7 +30977,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2">
         <v>8176</v>
@@ -30964,10 +30986,10 @@
         <v>1325</v>
       </c>
       <c r="T26" s="50" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>9312</v>
       </c>
